--- a/src/main/resources/157-black-shop/black-shop-common-security_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-common-security_structure.xlsx
@@ -139,7 +139,7 @@
     <t>cn.blackshop.common.security.component.BlackResourceServerConfigurerAdapter</t>
   </si>
   <si>
-    <t>lambda$configure$0(org.springframework.security.config.annotation.web.configurers.ExpressionUrlAuthorizationConfigurer$ExpressionInterceptUrlRegistry)</t>
+    <t>lambda$configure$0(org.springframework.security.config.annotation.web.configurers.ExpressionUrlAuthorizationConfigurer$ExpressionInterceptUrlRegistry,java.lang.String)</t>
   </si>
   <si>
     <t>configure(org.springframework.security.config.annotation.web.builders.HttpSecurity)</t>
